--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value669.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value669.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.784097622751357</v>
+        <v>2.11095929145813</v>
       </c>
       <c r="B1">
-        <v>1.920474172061089</v>
+        <v>2.576983213424683</v>
       </c>
       <c r="C1">
-        <v>2.160645847631091</v>
+        <v>2.694610595703125</v>
       </c>
       <c r="D1">
-        <v>3.346597121549058</v>
+        <v>3.195507764816284</v>
       </c>
       <c r="E1">
-        <v>1.787119138988033</v>
+        <v>0.7914511561393738</v>
       </c>
     </row>
   </sheetData>
